--- a/biology/Zoologie/Le_Caniche_blanc/Le_Caniche_blanc.xlsx
+++ b/biology/Zoologie/Le_Caniche_blanc/Le_Caniche_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Caniche blanc (Белый пудель, Biély poudel) est un film soviétique réalisé par Marianna Rochal et Vladimir Chredel en 1955.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XIXe siècle, sur les bords de la Mer Noire, Lodyjkine, vieux joueur d'orgue ambulant, son petit-fils, Serioja, acrobate âgé de douze ans et Arto, leur caniche savant donnent des représentations. Ils gagnent péniblement leur vie, mais s'entendent bien et l'enfant, malgré les longues marches, trouve la force de chanter sur les routes de Crimée. Un jour, à Miskhor sans doute, ils entrent dans le jardin d'une luxueuse demeure et font un spectacle devant les propriétaires et Trilly, un enfant à qui on ne refuse rien. Au moment de repartir, ce garçon veut à tout prix, c'est le cas de le dire, le caniche, et, malgré tous les efforts de la famille pour lui expliquer que ce chien n'est pas à vendre car c'est le gagne-pain des saltimbanques, Trilly ne cède pas et fait « une crise ». Sa mère s'abaisse alors à offrir une forte somme d'argent au vieux joueur d'orgue, mais celui-ci refuse et repart. La nuit le chien disparaît...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Белый пудель (Biély poudel)
 Titre français : Le Caniche blanc
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Viktor Koltsov : grand-père Lodyjkine, joueur d'orgue
 Volodia Poliakov : Serioja, le petit acrobate
@@ -604,7 +622,7 @@
 Gueorgui Milliar : Ivan, un domestique
 Semion Svachenko : un vagabond
 Nikolaï Tchistiakov : le médecin
-Olga Belkina, Roman Chirman, N. Kabakova, Galina Levtchenko, Nadejda Mertsalova [1]
+Olga Belkina, Roman Chirman, N. Kabakova, Galina Levtchenko, Nadejda Mertsalova 
 et le caniche Arto
 </t>
         </is>
@@ -634,9 +652,11 @@
           <t>En bref</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce film est visible en intégralité sur un site en russe, mais le son semble avoir mieux résisté que l'image[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce film est visible en intégralité sur un site en russe, mais le son semble avoir mieux résisté que l'image.
 Miskhor probablement car le grand-père (chaussé) et son petit-fils (pieds nus) s'arrêtent un instant au pied d'un poteau sur lequel on a fixé une pancarte portant Miskhor 10 verstes soit 10,668 kilomètres.</t>
         </is>
       </c>
